--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/40/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/40/FD_Curve.xlsx
@@ -463,35 +463,35 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0310005</v>
+        <v>0.0310006</v>
       </c>
       <c r="B3" t="n">
-        <v>1.11364</v>
+        <v>0.6831</v>
       </c>
       <c r="C3" t="n">
-        <v>1113.64</v>
+        <v>683.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0620038</v>
+        <v>0.0620045</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>0.76171</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>761.71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0929936</v>
+        <v>0.0929942</v>
       </c>
       <c r="B5" t="n">
-        <v>3.01622</v>
+        <v>0.8302419999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>3016.22</v>
+        <v>830.242</v>
       </c>
     </row>
     <row r="6">
@@ -499,1066 +499,1066 @@
         <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>3.2112</v>
+        <v>0.870862</v>
       </c>
       <c r="C6" t="n">
-        <v>3211.2</v>
+        <v>870.862</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154946</v>
+        <v>0.154992</v>
       </c>
       <c r="B7" t="n">
-        <v>3.3815</v>
+        <v>0.905617</v>
       </c>
       <c r="C7" t="n">
-        <v>3381.5</v>
+        <v>905.617</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185922</v>
+        <v>0.185968</v>
       </c>
       <c r="B8" t="n">
-        <v>3.52573</v>
+        <v>0.9331630000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>3525.73</v>
+        <v>933.163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216899</v>
+        <v>0.216944</v>
       </c>
       <c r="B9" t="n">
-        <v>3.63202</v>
+        <v>0.960136</v>
       </c>
       <c r="C9" t="n">
-        <v>3632.02</v>
+        <v>960.136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247875</v>
+        <v>0.24792</v>
       </c>
       <c r="B10" t="n">
-        <v>3.7409</v>
+        <v>0.983661</v>
       </c>
       <c r="C10" t="n">
-        <v>3740.9</v>
+        <v>983.6609999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278803</v>
+        <v>0.278849</v>
       </c>
       <c r="B11" t="n">
-        <v>3.83383</v>
+        <v>1.00621</v>
       </c>
       <c r="C11" t="n">
-        <v>3833.83</v>
+        <v>1006.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309728</v>
+        <v>0.30977</v>
       </c>
       <c r="B12" t="n">
-        <v>3.92397</v>
+        <v>1.02722</v>
       </c>
       <c r="C12" t="n">
-        <v>3923.97</v>
+        <v>1027.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340653</v>
+        <v>0.340695</v>
       </c>
       <c r="B13" t="n">
-        <v>4.00415</v>
+        <v>1.04737</v>
       </c>
       <c r="C13" t="n">
-        <v>4004.15</v>
+        <v>1047.37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371578</v>
+        <v>0.37162</v>
       </c>
       <c r="B14" t="n">
-        <v>4.07938</v>
+        <v>1.06737</v>
       </c>
       <c r="C14" t="n">
-        <v>4079.38</v>
+        <v>1067.37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402503</v>
+        <v>0.402545</v>
       </c>
       <c r="B15" t="n">
-        <v>4.14821</v>
+        <v>1.08588</v>
       </c>
       <c r="C15" t="n">
-        <v>4148.21</v>
+        <v>1085.88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433428</v>
+        <v>0.43347</v>
       </c>
       <c r="B16" t="n">
-        <v>4.211180000000001</v>
+        <v>1.10439</v>
       </c>
       <c r="C16" t="n">
-        <v>4211.18</v>
+        <v>1104.39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464349</v>
+        <v>0.464395</v>
       </c>
       <c r="B17" t="n">
-        <v>4.27248</v>
+        <v>1.12166</v>
       </c>
       <c r="C17" t="n">
-        <v>4272.48</v>
+        <v>1121.66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495274</v>
+        <v>0.49532</v>
       </c>
       <c r="B18" t="n">
-        <v>4.33233</v>
+        <v>1.13882</v>
       </c>
       <c r="C18" t="n">
-        <v>4332.33</v>
+        <v>1138.82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526199</v>
+        <v>0.526245</v>
       </c>
       <c r="B19" t="n">
-        <v>4.38849</v>
+        <v>1.15525</v>
       </c>
       <c r="C19" t="n">
-        <v>4388.49</v>
+        <v>1155.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557124</v>
+        <v>0.5571700000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>4.43912</v>
+        <v>1.17184</v>
       </c>
       <c r="C20" t="n">
-        <v>4439.12</v>
+        <v>1171.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588049</v>
+        <v>0.588095</v>
       </c>
       <c r="B21" t="n">
-        <v>4.49078</v>
+        <v>1.18801</v>
       </c>
       <c r="C21" t="n">
-        <v>4490.78</v>
+        <v>1188.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6190909999999999</v>
+        <v>0.619137</v>
       </c>
       <c r="B22" t="n">
-        <v>4.53945</v>
+        <v>1.20364</v>
       </c>
       <c r="C22" t="n">
-        <v>4539.45</v>
+        <v>1203.64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650268</v>
+        <v>0.6503100000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>4.5855</v>
+        <v>1.21899</v>
       </c>
       <c r="C23" t="n">
-        <v>4585.5</v>
+        <v>1218.99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681441</v>
+        <v>0.681487</v>
       </c>
       <c r="B24" t="n">
-        <v>4.63165</v>
+        <v>1.23401</v>
       </c>
       <c r="C24" t="n">
-        <v>4631.65</v>
+        <v>1234.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126130000000001</v>
+        <v>0.712659</v>
       </c>
       <c r="B25" t="n">
-        <v>4.67403</v>
+        <v>1.24904</v>
       </c>
       <c r="C25" t="n">
-        <v>4674.03</v>
+        <v>1249.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74379</v>
+        <v>0.743832</v>
       </c>
       <c r="B26" t="n">
-        <v>4.71692</v>
+        <v>1.2637</v>
       </c>
       <c r="C26" t="n">
-        <v>4716.92</v>
+        <v>1263.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774963</v>
+        <v>0.7750089999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>4.757</v>
+        <v>1.27773</v>
       </c>
       <c r="C27" t="n">
-        <v>4757</v>
+        <v>1277.73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806135</v>
+        <v>0.806182</v>
       </c>
       <c r="B28" t="n">
-        <v>4.79621</v>
+        <v>1.29184</v>
       </c>
       <c r="C28" t="n">
-        <v>4796.21</v>
+        <v>1291.84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8373119999999999</v>
+        <v>0.837354</v>
       </c>
       <c r="B29" t="n">
-        <v>4.83534</v>
+        <v>1.30583</v>
       </c>
       <c r="C29" t="n">
-        <v>4835.34</v>
+        <v>1305.83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868485</v>
+        <v>0.8685310000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>4.871189999999999</v>
+        <v>1.31924</v>
       </c>
       <c r="C30" t="n">
-        <v>4871.19</v>
+        <v>1319.24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899658</v>
+        <v>0.8997039999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>4.90754</v>
+        <v>1.33266</v>
       </c>
       <c r="C31" t="n">
-        <v>4907.54</v>
+        <v>1332.66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930835</v>
+        <v>0.930881</v>
       </c>
       <c r="B32" t="n">
-        <v>4.94287</v>
+        <v>1.34601</v>
       </c>
       <c r="C32" t="n">
-        <v>4942.87</v>
+        <v>1346.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620069999999999</v>
+        <v>0.962053</v>
       </c>
       <c r="B33" t="n">
-        <v>4.97583</v>
+        <v>1.35886</v>
       </c>
       <c r="C33" t="n">
-        <v>4975.83</v>
+        <v>1358.86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993184</v>
+        <v>0.993086</v>
       </c>
       <c r="B34" t="n">
-        <v>5.00848</v>
+        <v>1.37177</v>
       </c>
       <c r="C34" t="n">
-        <v>5008.48</v>
+        <v>1371.77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02421</v>
+        <v>1.02406</v>
       </c>
       <c r="B35" t="n">
-        <v>5.04116</v>
+        <v>1.38452</v>
       </c>
       <c r="C35" t="n">
-        <v>5041.16</v>
+        <v>1384.52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05518</v>
+        <v>1.05502</v>
       </c>
       <c r="B36" t="n">
-        <v>5.07251</v>
+        <v>1.39684</v>
       </c>
       <c r="C36" t="n">
-        <v>5072.51</v>
+        <v>1396.84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08615</v>
+        <v>1.08599</v>
       </c>
       <c r="B37" t="n">
-        <v>5.10255</v>
+        <v>1.40931</v>
       </c>
       <c r="C37" t="n">
-        <v>5102.55</v>
+        <v>1409.31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11711</v>
+        <v>1.11696</v>
       </c>
       <c r="B38" t="n">
-        <v>5.13184</v>
+        <v>1.42141</v>
       </c>
       <c r="C38" t="n">
-        <v>5131.84</v>
+        <v>1421.41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14808</v>
+        <v>1.14792</v>
       </c>
       <c r="B39" t="n">
-        <v>5.160810000000001</v>
+        <v>1.43337</v>
       </c>
       <c r="C39" t="n">
-        <v>5160.81</v>
+        <v>1433.37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17905</v>
+        <v>1.1789</v>
       </c>
       <c r="B40" t="n">
-        <v>5.18947</v>
+        <v>1.44538</v>
       </c>
       <c r="C40" t="n">
-        <v>5189.47</v>
+        <v>1445.38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21001</v>
+        <v>1.20986</v>
       </c>
       <c r="B41" t="n">
-        <v>5.217680000000001</v>
+        <v>1.45702</v>
       </c>
       <c r="C41" t="n">
-        <v>5217.68</v>
+        <v>1457.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24098</v>
+        <v>1.24083</v>
       </c>
       <c r="B42" t="n">
-        <v>5.245100000000001</v>
+        <v>1.46876</v>
       </c>
       <c r="C42" t="n">
-        <v>5245.1</v>
+        <v>1468.76</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27195</v>
+        <v>1.2718</v>
       </c>
       <c r="B43" t="n">
-        <v>5.27187</v>
+        <v>1.48019</v>
       </c>
       <c r="C43" t="n">
-        <v>5271.87</v>
+        <v>1480.19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30292</v>
+        <v>1.30276</v>
       </c>
       <c r="B44" t="n">
-        <v>5.298109999999999</v>
+        <v>1.4916</v>
       </c>
       <c r="C44" t="n">
-        <v>5298.11</v>
+        <v>1491.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33389</v>
+        <v>1.33373</v>
       </c>
       <c r="B45" t="n">
-        <v>5.3238</v>
+        <v>1.50288</v>
       </c>
       <c r="C45" t="n">
-        <v>5323.8</v>
+        <v>1502.88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36485</v>
+        <v>1.3647</v>
       </c>
       <c r="B46" t="n">
-        <v>5.34895</v>
+        <v>1.51397</v>
       </c>
       <c r="C46" t="n">
-        <v>5348.95</v>
+        <v>1513.97</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39582</v>
+        <v>1.39567</v>
       </c>
       <c r="B47" t="n">
-        <v>5.37374</v>
+        <v>1.52514</v>
       </c>
       <c r="C47" t="n">
-        <v>5373.74</v>
+        <v>1525.14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42679</v>
+        <v>1.42663</v>
       </c>
       <c r="B48" t="n">
-        <v>5.39822</v>
+        <v>1.53598</v>
       </c>
       <c r="C48" t="n">
-        <v>5398.22</v>
+        <v>1535.98</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45776</v>
+        <v>1.4576</v>
       </c>
       <c r="B49" t="n">
-        <v>5.4222</v>
+        <v>1.54693</v>
       </c>
       <c r="C49" t="n">
-        <v>5422.2</v>
+        <v>1546.93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48872</v>
+        <v>1.48857</v>
       </c>
       <c r="B50" t="n">
-        <v>5.44576</v>
+        <v>1.55761</v>
       </c>
       <c r="C50" t="n">
-        <v>5445.76</v>
+        <v>1557.61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51969</v>
+        <v>1.51954</v>
       </c>
       <c r="B51" t="n">
-        <v>5.46909</v>
+        <v>1.56835</v>
       </c>
       <c r="C51" t="n">
-        <v>5469.09</v>
+        <v>1568.35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55066</v>
+        <v>1.55051</v>
       </c>
       <c r="B52" t="n">
-        <v>5.49187</v>
+        <v>1.57892</v>
       </c>
       <c r="C52" t="n">
-        <v>5491.87</v>
+        <v>1578.92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58163</v>
+        <v>1.58147</v>
       </c>
       <c r="B53" t="n">
-        <v>5.51433</v>
+        <v>1.58945</v>
       </c>
       <c r="C53" t="n">
-        <v>5514.33</v>
+        <v>1589.45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.6126</v>
+        <v>1.61244</v>
       </c>
       <c r="B54" t="n">
-        <v>5.53643</v>
+        <v>1.59992</v>
       </c>
       <c r="C54" t="n">
-        <v>5536.43</v>
+        <v>1599.92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64356</v>
+        <v>1.64341</v>
       </c>
       <c r="B55" t="n">
-        <v>5.55813</v>
+        <v>1.61025</v>
       </c>
       <c r="C55" t="n">
-        <v>5558.13</v>
+        <v>1610.25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67453</v>
+        <v>1.67438</v>
       </c>
       <c r="B56" t="n">
-        <v>5.5796</v>
+        <v>1.62058</v>
       </c>
       <c r="C56" t="n">
-        <v>5579.6</v>
+        <v>1620.58</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.7055</v>
+        <v>1.70535</v>
       </c>
       <c r="B57" t="n">
-        <v>5.60065</v>
+        <v>1.63076</v>
       </c>
       <c r="C57" t="n">
-        <v>5600.65</v>
+        <v>1630.76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73647</v>
+        <v>1.73631</v>
       </c>
       <c r="B58" t="n">
-        <v>5.621390000000001</v>
+        <v>1.64097</v>
       </c>
       <c r="C58" t="n">
-        <v>5621.39</v>
+        <v>1640.97</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76744</v>
+        <v>1.76728</v>
       </c>
       <c r="B59" t="n">
-        <v>5.641760000000001</v>
+        <v>1.65104</v>
       </c>
       <c r="C59" t="n">
-        <v>5641.76</v>
+        <v>1651.04</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.7984</v>
+        <v>1.79825</v>
       </c>
       <c r="B60" t="n">
-        <v>5.66186</v>
+        <v>1.6611</v>
       </c>
       <c r="C60" t="n">
-        <v>5661.86</v>
+        <v>1661.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82937</v>
+        <v>1.82921</v>
       </c>
       <c r="B61" t="n">
-        <v>5.681649999999999</v>
+        <v>1.67108</v>
       </c>
       <c r="C61" t="n">
-        <v>5681.65</v>
+        <v>1671.08</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86034</v>
+        <v>1.86019</v>
       </c>
       <c r="B62" t="n">
-        <v>5.70111</v>
+        <v>1.68098</v>
       </c>
       <c r="C62" t="n">
-        <v>5701.11</v>
+        <v>1680.98</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.8913</v>
+        <v>1.89115</v>
       </c>
       <c r="B63" t="n">
-        <v>5.7204</v>
+        <v>1.69086</v>
       </c>
       <c r="C63" t="n">
-        <v>5720.4</v>
+        <v>1690.86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92228</v>
+        <v>1.92212</v>
       </c>
       <c r="B64" t="n">
-        <v>5.73943</v>
+        <v>1.70065</v>
       </c>
       <c r="C64" t="n">
-        <v>5739.43</v>
+        <v>1700.65</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95324</v>
+        <v>1.95309</v>
       </c>
       <c r="B65" t="n">
-        <v>5.75829</v>
+        <v>1.71043</v>
       </c>
       <c r="C65" t="n">
-        <v>5758.29</v>
+        <v>1710.43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98421</v>
+        <v>1.98402</v>
       </c>
       <c r="B66" t="n">
-        <v>5.77687</v>
+        <v>1.72011</v>
       </c>
       <c r="C66" t="n">
-        <v>5776.87</v>
+        <v>1720.11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01499</v>
+        <v>2.01457</v>
       </c>
       <c r="B67" t="n">
-        <v>5.79524</v>
+        <v>1.7298</v>
       </c>
       <c r="C67" t="n">
-        <v>5795.24</v>
+        <v>1729.8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04555</v>
+        <v>2.04513</v>
       </c>
       <c r="B68" t="n">
-        <v>5.81334</v>
+        <v>1.73938</v>
       </c>
       <c r="C68" t="n">
-        <v>5813.34</v>
+        <v>1739.38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0761</v>
+        <v>2.07568</v>
       </c>
       <c r="B69" t="n">
-        <v>5.83115</v>
+        <v>1.74899</v>
       </c>
       <c r="C69" t="n">
-        <v>5831.15</v>
+        <v>1748.99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10666</v>
+        <v>2.10624</v>
       </c>
       <c r="B70" t="n">
-        <v>5.84862</v>
+        <v>1.75849</v>
       </c>
       <c r="C70" t="n">
-        <v>5848.62</v>
+        <v>1758.49</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13721</v>
+        <v>2.13679</v>
       </c>
       <c r="B71" t="n">
-        <v>5.865850000000001</v>
+        <v>1.76798</v>
       </c>
       <c r="C71" t="n">
-        <v>5865.85</v>
+        <v>1767.98</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16776</v>
+        <v>2.16735</v>
       </c>
       <c r="B72" t="n">
-        <v>5.88279</v>
+        <v>1.77739</v>
       </c>
       <c r="C72" t="n">
-        <v>5882.79</v>
+        <v>1777.39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.19832</v>
+        <v>2.1979</v>
       </c>
       <c r="B73" t="n">
-        <v>5.899529999999999</v>
+        <v>1.78679</v>
       </c>
       <c r="C73" t="n">
-        <v>5899.53</v>
+        <v>1786.79</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.22887</v>
+        <v>2.22846</v>
       </c>
       <c r="B74" t="n">
-        <v>5.9161</v>
+        <v>1.79612</v>
       </c>
       <c r="C74" t="n">
-        <v>5916.1</v>
+        <v>1796.12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.25943</v>
+        <v>2.25901</v>
       </c>
       <c r="B75" t="n">
-        <v>5.93247</v>
+        <v>1.80542</v>
       </c>
       <c r="C75" t="n">
-        <v>5932.47</v>
+        <v>1805.42</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.28998</v>
+        <v>2.28957</v>
       </c>
       <c r="B76" t="n">
-        <v>5.948729999999999</v>
+        <v>1.81468</v>
       </c>
       <c r="C76" t="n">
-        <v>5948.73</v>
+        <v>1814.68</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32054</v>
+        <v>2.32012</v>
       </c>
       <c r="B77" t="n">
-        <v>5.96469</v>
+        <v>1.82389</v>
       </c>
       <c r="C77" t="n">
-        <v>5964.69</v>
+        <v>1823.89</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35109</v>
+        <v>2.35067</v>
       </c>
       <c r="B78" t="n">
-        <v>5.98045</v>
+        <v>1.83306</v>
       </c>
       <c r="C78" t="n">
-        <v>5980.45</v>
+        <v>1833.06</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38165</v>
+        <v>2.38123</v>
       </c>
       <c r="B79" t="n">
-        <v>5.99603</v>
+        <v>1.84218</v>
       </c>
       <c r="C79" t="n">
-        <v>5996.03</v>
+        <v>1842.18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.4122</v>
+        <v>2.41178</v>
       </c>
       <c r="B80" t="n">
-        <v>6.01137</v>
+        <v>1.85127</v>
       </c>
       <c r="C80" t="n">
-        <v>6011.37</v>
+        <v>1851.27</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44365</v>
+        <v>2.44323</v>
       </c>
       <c r="B81" t="n">
-        <v>6.02697</v>
+        <v>1.86058</v>
       </c>
       <c r="C81" t="n">
-        <v>6026.97</v>
+        <v>1860.58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47522</v>
+        <v>2.47481</v>
       </c>
       <c r="B82" t="n">
-        <v>6.04244</v>
+        <v>1.86988</v>
       </c>
       <c r="C82" t="n">
-        <v>6042.44</v>
+        <v>1869.88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50679</v>
+        <v>2.50638</v>
       </c>
       <c r="B83" t="n">
-        <v>6.05767</v>
+        <v>1.87916</v>
       </c>
       <c r="C83" t="n">
-        <v>6057.67</v>
+        <v>1879.16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53837</v>
+        <v>2.53795</v>
       </c>
       <c r="B84" t="n">
-        <v>6.072760000000001</v>
+        <v>1.88838</v>
       </c>
       <c r="C84" t="n">
-        <v>6072.76</v>
+        <v>1888.38</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56994</v>
+        <v>2.56953</v>
       </c>
       <c r="B85" t="n">
-        <v>6.08761</v>
+        <v>1.89758</v>
       </c>
       <c r="C85" t="n">
-        <v>6087.61</v>
+        <v>1897.58</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60151</v>
+        <v>2.6011</v>
       </c>
       <c r="B86" t="n">
-        <v>6.10231</v>
+        <v>1.90672</v>
       </c>
       <c r="C86" t="n">
-        <v>6102.31</v>
+        <v>1906.72</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63309</v>
+        <v>2.63267</v>
       </c>
       <c r="B87" t="n">
-        <v>6.11675</v>
+        <v>1.91584</v>
       </c>
       <c r="C87" t="n">
-        <v>6116.75</v>
+        <v>1915.84</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66466</v>
+        <v>2.66424</v>
       </c>
       <c r="B88" t="n">
-        <v>6.13104</v>
+        <v>1.92493</v>
       </c>
       <c r="C88" t="n">
-        <v>6131.04</v>
+        <v>1924.93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69624</v>
+        <v>2.69582</v>
       </c>
       <c r="B89" t="n">
-        <v>6.1451</v>
+        <v>1.93397</v>
       </c>
       <c r="C89" t="n">
-        <v>6145.1</v>
+        <v>1933.97</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72781</v>
+        <v>2.72739</v>
       </c>
       <c r="B90" t="n">
-        <v>6.15897</v>
+        <v>1.94298</v>
       </c>
       <c r="C90" t="n">
-        <v>6158.97</v>
+        <v>1942.98</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75938</v>
+        <v>2.75896</v>
       </c>
       <c r="B91" t="n">
-        <v>6.17266</v>
+        <v>1.95195</v>
       </c>
       <c r="C91" t="n">
-        <v>6172.66</v>
+        <v>1951.95</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79096</v>
+        <v>2.79054</v>
       </c>
       <c r="B92" t="n">
-        <v>6.1862</v>
+        <v>1.96089</v>
       </c>
       <c r="C92" t="n">
-        <v>6186.2</v>
+        <v>1960.89</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82253</v>
+        <v>2.82211</v>
       </c>
       <c r="B93" t="n">
-        <v>6.1996</v>
+        <v>1.96979</v>
       </c>
       <c r="C93" t="n">
-        <v>6199.6</v>
+        <v>1969.79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.8541</v>
+        <v>2.85368</v>
       </c>
       <c r="B94" t="n">
-        <v>6.21288</v>
+        <v>1.97867</v>
       </c>
       <c r="C94" t="n">
-        <v>6212.88</v>
+        <v>1978.67</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88568</v>
+        <v>2.88526</v>
       </c>
       <c r="B95" t="n">
-        <v>6.225930000000001</v>
+        <v>1.9875</v>
       </c>
       <c r="C95" t="n">
-        <v>6225.93</v>
+        <v>1987.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91725</v>
+        <v>2.91683</v>
       </c>
       <c r="B96" t="n">
-        <v>6.238810000000001</v>
+        <v>1.9963</v>
       </c>
       <c r="C96" t="n">
-        <v>6238.81</v>
+        <v>1996.3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94882</v>
+        <v>2.9484</v>
       </c>
       <c r="B97" t="n">
-        <v>6.251510000000001</v>
+        <v>2.00506</v>
       </c>
       <c r="C97" t="n">
-        <v>6251.51</v>
+        <v>2005.06</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.9804</v>
+        <v>2.97998</v>
       </c>
       <c r="B98" t="n">
-        <v>6.26402</v>
+        <v>2.01378</v>
       </c>
       <c r="C98" t="n">
-        <v>6264.02</v>
+        <v>2013.78</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01197</v>
+        <v>3.01155</v>
       </c>
       <c r="B99" t="n">
-        <v>6.27634</v>
+        <v>2.02246</v>
       </c>
       <c r="C99" t="n">
-        <v>6276.34</v>
+        <v>2022.46</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04354</v>
+        <v>3.04313</v>
       </c>
       <c r="B100" t="n">
-        <v>6.28853</v>
+        <v>2.03112</v>
       </c>
       <c r="C100" t="n">
-        <v>6288.53</v>
+        <v>2031.12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07511</v>
+        <v>3.0747</v>
       </c>
       <c r="B101" t="n">
-        <v>6.30058</v>
+        <v>2.03973</v>
       </c>
       <c r="C101" t="n">
-        <v>6300.58</v>
+        <v>2039.73</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10669</v>
+        <v>3.10627</v>
       </c>
       <c r="B102" t="n">
-        <v>6.31244</v>
+        <v>2.04832</v>
       </c>
       <c r="C102" t="n">
-        <v>6312.44</v>
+        <v>2048.32</v>
       </c>
     </row>
   </sheetData>
